--- a/450 Questions/FINAL450.xlsx
+++ b/450 Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B86AA6-194F-4227-BA74-4E29A6ECE6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D211264F-91C3-42B7-B878-072BD95C28D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -510,21 +510,12 @@
     <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
   </si>
   <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
     <t>Clone a linked list with next and random pointer</t>
   </si>
   <si>
     <t>Merge K sorted Linked list</t>
   </si>
   <si>
-    <t>Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
     <t>Delete nodes which have a greater value on right side</t>
   </si>
   <si>
@@ -1423,6 +1414,18 @@
   </si>
   <si>
     <t>Write a program to Remove loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL (2nd Sept)</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's (2nd Sept)</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List (2nd Sept)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1872,7 +1875,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1899,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1910,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1932,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -2308,7 +2311,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2319,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2423,7 +2426,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2434,7 +2437,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2445,7 +2448,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -3301,7 +3304,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3323,7 +3326,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3331,10 +3334,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3345,7 +3348,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3356,7 +3359,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3367,7 +3370,7 @@
         <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3378,7 +3381,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3389,7 +3392,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3400,7 +3403,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3411,7 +3414,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3422,7 +3425,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3433,7 +3436,7 @@
         <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3455,7 +3458,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3466,7 +3469,7 @@
         <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3488,7 +3491,7 @@
         <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3595,10 +3598,10 @@
         <v>134</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>161</v>
+        <v>465</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
@@ -3606,7 +3609,7 @@
         <v>134</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>162</v>
+        <v>464</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3617,7 +3620,7 @@
         <v>134</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3628,10 +3631,10 @@
         <v>134</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
@@ -3639,7 +3642,7 @@
         <v>134</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>165</v>
+        <v>463</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3650,7 +3653,7 @@
         <v>134</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3661,7 +3664,7 @@
         <v>134</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3672,10 +3675,10 @@
         <v>134</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
@@ -3683,7 +3686,7 @@
         <v>134</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3695,120 +3698,120 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3816,10 +3819,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3827,21 +3830,21 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3849,10 +3852,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3860,21 +3863,21 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3882,10 +3885,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3893,10 +3896,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -3904,10 +3907,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -3915,10 +3918,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3926,10 +3929,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3937,10 +3940,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3948,10 +3951,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3959,10 +3962,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3970,10 +3973,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -3981,10 +3984,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -3992,10 +3995,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4003,10 +4006,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4014,10 +4017,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4025,21 +4028,21 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4047,10 +4050,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4058,10 +4061,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4069,10 +4072,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4090,10 +4093,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4101,10 +4104,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4112,10 +4115,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4123,10 +4126,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4134,10 +4137,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4167,10 +4170,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4189,10 +4192,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4200,10 +4203,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4211,10 +4214,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4222,10 +4225,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4244,10 +4247,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4255,10 +4258,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4277,10 +4280,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4299,10 +4302,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4310,10 +4313,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4321,10 +4324,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4340,10 +4343,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4351,10 +4354,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4362,10 +4365,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4373,10 +4376,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4384,10 +4387,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4395,10 +4398,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4406,10 +4409,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4417,10 +4420,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4428,10 +4431,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4439,10 +4442,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4450,10 +4453,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4461,10 +4464,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4472,10 +4475,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4483,10 +4486,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4494,10 +4497,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4505,10 +4508,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4516,10 +4519,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4527,10 +4530,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4538,10 +4541,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4549,10 +4552,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4560,10 +4563,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4571,10 +4574,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4582,10 +4585,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4593,10 +4596,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4604,10 +4607,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4615,10 +4618,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4626,10 +4629,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4637,10 +4640,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4648,10 +4651,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4659,10 +4662,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4670,10 +4673,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4681,10 +4684,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4692,10 +4695,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4703,7 +4706,7 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>87</v>
@@ -4714,10 +4717,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4733,10 +4736,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4744,10 +4747,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4755,10 +4758,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4766,10 +4769,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4788,10 +4791,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4810,10 +4813,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4821,10 +4824,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4832,10 +4835,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4843,10 +4846,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -4854,10 +4857,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -4865,10 +4868,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4876,10 +4879,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -4887,10 +4890,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4898,10 +4901,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4909,10 +4912,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -4920,10 +4923,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -4931,10 +4934,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -4950,10 +4953,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -4961,10 +4964,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -4972,10 +4975,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -4983,10 +4986,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -4994,10 +4997,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5005,10 +5008,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5016,10 +5019,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5027,10 +5030,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5038,10 +5041,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5049,10 +5052,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5060,10 +5063,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5071,10 +5074,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5093,10 +5096,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5104,10 +5107,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5115,10 +5118,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5126,10 +5129,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5137,10 +5140,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5148,10 +5151,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5159,10 +5162,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5170,10 +5173,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5181,10 +5184,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5192,10 +5195,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5203,10 +5206,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5214,10 +5217,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5236,10 +5239,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5247,10 +5250,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5269,10 +5272,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5280,10 +5283,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5291,10 +5294,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5302,10 +5305,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5313,10 +5316,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5324,10 +5327,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5335,10 +5338,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5346,10 +5349,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5357,10 +5360,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5376,10 +5379,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5387,10 +5390,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5398,10 +5401,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5420,10 +5423,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5431,10 +5434,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5442,10 +5445,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5453,10 +5456,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5464,10 +5467,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5475,10 +5478,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5486,10 +5489,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5497,10 +5500,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5508,10 +5511,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5519,10 +5522,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5530,10 +5533,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5541,10 +5544,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5563,10 +5566,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5582,10 +5585,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5593,10 +5596,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B358" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5615,10 +5618,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5626,10 +5629,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5637,10 +5640,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5648,10 +5651,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5659,10 +5662,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5681,10 +5684,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5692,10 +5695,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5703,10 +5706,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5714,10 +5717,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5725,10 +5728,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5736,10 +5739,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5747,10 +5750,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5758,10 +5761,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5780,10 +5783,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5791,10 +5794,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5802,10 +5805,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5813,10 +5816,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5824,10 +5827,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5835,10 +5838,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5846,10 +5849,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5857,10 +5860,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5868,10 +5871,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5879,10 +5882,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5890,10 +5893,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5901,10 +5904,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5912,10 +5915,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5923,10 +5926,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5945,10 +5948,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5956,10 +5959,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5967,10 +5970,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -5978,10 +5981,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -5989,10 +5992,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6011,10 +6014,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6022,10 +6025,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6033,10 +6036,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6044,10 +6047,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6055,10 +6058,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6074,10 +6077,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6085,10 +6088,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6096,10 +6099,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B404" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B404" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6107,7 +6110,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>89</v>
@@ -6118,10 +6121,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6148,10 +6151,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6159,10 +6162,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6170,10 +6173,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B412" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6181,10 +6184,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6192,10 +6195,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6214,10 +6217,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6225,10 +6228,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6236,10 +6239,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6247,10 +6250,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6258,10 +6261,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6269,10 +6272,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6280,10 +6283,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6291,10 +6294,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6302,10 +6305,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6313,10 +6316,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6324,10 +6327,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6335,10 +6338,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6346,10 +6349,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6357,10 +6360,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6368,10 +6371,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6379,10 +6382,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6390,10 +6393,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6401,10 +6404,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6412,10 +6415,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6423,10 +6426,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6434,10 +6437,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6445,10 +6448,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6456,10 +6459,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6467,10 +6470,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6478,10 +6481,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6489,10 +6492,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6500,10 +6503,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6511,10 +6514,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6522,10 +6525,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6533,10 +6536,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6544,10 +6547,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6555,10 +6558,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6566,10 +6569,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6577,10 +6580,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6588,10 +6591,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6599,10 +6602,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6610,10 +6613,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6621,10 +6624,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6632,10 +6635,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6643,10 +6646,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6654,10 +6657,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6665,10 +6668,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6676,10 +6679,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6687,10 +6690,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6698,10 +6701,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6709,10 +6712,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6720,10 +6723,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6731,10 +6734,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6742,10 +6745,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6753,10 +6756,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6764,10 +6767,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6775,10 +6778,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6797,10 +6800,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6817,10 +6820,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6828,10 +6831,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6839,10 +6842,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B474" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6850,10 +6853,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6861,10 +6864,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6872,10 +6875,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6883,10 +6886,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6894,10 +6897,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6905,10 +6908,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6916,10 +6919,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7076,11 +7079,11 @@
     <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
     <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
     <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B166" r:id="rId150" display="Flatten a Linked List" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B167" r:id="rId151" display="Sort a LL of 0's, 1's and 2's" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
     <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
     <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B170" r:id="rId154" display="Multiply 2 no. represented by LL" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
     <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
     <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
     <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
@@ -7375,5 +7378,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/450 Questions/FINAL450.xlsx
+++ b/450 Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\450 Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D211264F-91C3-42B7-B878-072BD95C28D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B64CD7-12C5-4FD5-94DD-007BC68B408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -894,12 +894,6 @@
     <t>Reverse a String using Stack</t>
   </si>
   <si>
-    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t>Find the next Greater element</t>
-  </si>
-  <si>
     <t>The celebrity Problem</t>
   </si>
   <si>
@@ -915,15 +909,9 @@
     <t>Reverse a stack using recursion</t>
   </si>
   <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
     <t>Merge Overlapping Intervals</t>
   </si>
   <si>
-    <t>Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
     <t>Length of the Longest Valid Substring</t>
   </si>
   <si>
@@ -948,9 +936,6 @@
     <t>Implement a Circular queue</t>
   </si>
   <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
     <t>Reverse a Queue using recursion</t>
   </si>
   <si>
@@ -1426,6 +1411,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.[striver]</t>
+  </si>
+  <si>
+    <t>Find the next Greater element[striver]</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion [striver]</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram[striver]</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa[striver]</t>
   </si>
 </sst>
 </file>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1902,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1935,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -2012,7 +2012,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2034,7 +2034,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2056,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2311,7 +2311,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2322,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2388,7 +2388,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2426,7 +2426,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2437,7 +2437,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2448,7 +2448,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
@@ -3304,7 +3304,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3326,7 +3326,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3334,10 +3334,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3348,7 +3348,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3359,7 +3359,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3370,7 +3370,7 @@
         <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3381,7 +3381,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3392,7 +3392,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3403,7 +3403,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3414,7 +3414,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3425,7 +3425,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3436,7 +3436,7 @@
         <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3458,7 +3458,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3469,7 +3469,7 @@
         <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3491,7 +3491,7 @@
         <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3598,10 +3598,10 @@
         <v>134</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
@@ -3609,7 +3609,7 @@
         <v>134</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3634,7 +3634,7 @@
         <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
@@ -3642,7 +3642,7 @@
         <v>134</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3678,7 +3678,7 @@
         <v>165</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
@@ -3704,7 +3704,7 @@
         <v>168</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3715,7 +3715,7 @@
         <v>169</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3726,7 +3726,7 @@
         <v>170</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3737,7 +3737,7 @@
         <v>171</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3748,7 +3748,7 @@
         <v>172</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3759,7 +3759,7 @@
         <v>173</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3770,7 +3770,7 @@
         <v>174</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3781,7 +3781,7 @@
         <v>175</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3792,7 +3792,7 @@
         <v>176</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3803,7 +3803,7 @@
         <v>177</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
@@ -3836,7 +3836,7 @@
         <v>180</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -3869,7 +3869,7 @@
         <v>183</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
@@ -4034,7 +4034,7 @@
         <v>198</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4959,7 +4959,7 @@
         <v>282</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
@@ -4970,7 +4970,7 @@
         <v>283</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4981,7 +4981,7 @@
         <v>284</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
@@ -5033,7 +5033,7 @@
         <v>281</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>289</v>
+        <v>462</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5044,7 +5044,7 @@
         <v>281</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>290</v>
+        <v>463</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5055,7 +5055,7 @@
         <v>281</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5066,7 +5066,7 @@
         <v>281</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5077,7 +5077,7 @@
         <v>281</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5088,7 +5088,7 @@
         <v>281</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5099,7 +5099,7 @@
         <v>281</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5110,7 +5110,7 @@
         <v>281</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>296</v>
+        <v>464</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5121,7 +5121,7 @@
         <v>281</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5132,7 +5132,7 @@
         <v>281</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>298</v>
+        <v>465</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5143,7 +5143,7 @@
         <v>281</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5154,7 +5154,7 @@
         <v>281</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5165,7 +5165,7 @@
         <v>281</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5176,7 +5176,7 @@
         <v>281</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5187,7 +5187,7 @@
         <v>281</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5198,7 +5198,7 @@
         <v>281</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5209,7 +5209,7 @@
         <v>281</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5220,7 +5220,7 @@
         <v>281</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>281</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>307</v>
+        <v>466</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5242,7 +5242,7 @@
         <v>281</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5253,7 +5253,7 @@
         <v>281</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5264,7 +5264,7 @@
         <v>281</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5275,7 +5275,7 @@
         <v>281</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5286,7 +5286,7 @@
         <v>281</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5297,7 +5297,7 @@
         <v>281</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5308,7 +5308,7 @@
         <v>281</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5319,7 +5319,7 @@
         <v>281</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5330,7 +5330,7 @@
         <v>281</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5341,7 +5341,7 @@
         <v>281</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5352,7 +5352,7 @@
         <v>281</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5363,7 +5363,7 @@
         <v>281</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5423,10 +5423,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B340" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5456,10 +5456,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5585,10 +5585,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B360" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5662,10 +5662,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5728,10 +5728,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5772,10 +5772,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5783,10 +5783,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5794,10 +5794,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5816,10 +5816,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5827,10 +5827,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5849,10 +5849,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5860,10 +5860,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5871,10 +5871,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5915,10 +5915,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5926,10 +5926,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6003,10 +6003,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6058,10 +6058,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6077,10 +6077,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>89</v>
@@ -6121,10 +6121,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B407" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6173,10 +6173,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6195,10 +6195,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6217,10 +6217,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>269</v>
@@ -6239,10 +6239,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6261,10 +6261,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6272,10 +6272,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6283,10 +6283,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6294,10 +6294,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6338,10 +6338,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6349,10 +6349,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6360,10 +6360,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6371,10 +6371,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6404,10 +6404,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6415,10 +6415,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6426,10 +6426,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6437,10 +6437,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6448,10 +6448,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6459,10 +6459,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6470,10 +6470,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6503,10 +6503,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6558,10 +6558,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6580,10 +6580,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6591,10 +6591,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6602,10 +6602,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6613,10 +6613,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6624,10 +6624,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6635,10 +6635,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6668,10 +6668,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6679,10 +6679,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6701,10 +6701,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6723,10 +6723,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6734,10 +6734,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6745,10 +6745,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6756,10 +6756,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6778,10 +6778,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6789,10 +6789,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6800,10 +6800,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6820,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6864,10 +6864,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B476" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6908,10 +6908,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6919,10 +6919,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7206,16 +7206,16 @@
     <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
     <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
     <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B303" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space." xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B304" r:id="rId278" display="Find the next Greater element" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
     <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
     <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
     <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
     <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
     <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B310" r:id="rId284" display="Sort a Stack using recursion" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
     <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B312" r:id="rId286" display="Largest rectangular Area in Histogram" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
     <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
     <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
     <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
@@ -7224,7 +7224,7 @@
     <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
     <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
     <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B321" r:id="rId295" display="LRU Cache Implementationa" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
     <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
     <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
     <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
